--- a/对接资料/宁波人保/保费分期功能列表.xlsx
+++ b/对接资料/宁波人保/保费分期功能列表.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
   <si>
     <t>APP</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,14 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>保费管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车辆管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>基础信息保存</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -141,10 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>额度确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中转额度信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -222,6 +211,74 @@
   </si>
   <si>
     <t>激活白条并授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,6,9,12分期策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库表设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件传输（身份证照片等）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>押品管理（保单/履约险/车辆）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>押品存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务关联合同，合同关联押品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额度管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主体信息设计并确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划及列举依赖外部系统的，如人保、银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件传输：身份证照片等？问题！！！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -229,7 +286,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,13 +301,34 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -265,8 +343,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -547,23 +628,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="29.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.875" customWidth="1"/>
     <col min="6" max="6" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -582,214 +663,249 @@
       <c r="F1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="G11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C14" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" t="s">
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
-        <v>28</v>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" t="s">
-        <v>29</v>
+      <c r="C20" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
-        <v>31</v>
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" t="s">
-        <v>32</v>
+      <c r="C23" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
-        <v>34</v>
+      <c r="D24" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>36</v>
-      </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
         <v>38</v>
       </c>
-      <c r="D27" t="s">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" t="s">
         <v>43</v>
       </c>
-      <c r="C30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" t="s">
-        <v>49</v>
-      </c>
-      <c r="F32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D34" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -797,4 +913,48 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>